--- a/julia/RFFO/result_RFFO_Zt.xlsx
+++ b/julia/RFFO/result_RFFO_Zt.xlsx
@@ -449,7 +449,7 @@
         <v>0.18</v>
       </c>
       <c r="D2">
-        <v>0.0252</v>
+        <v>0.0298</v>
       </c>
       <c r="E2">
         <v>19450.62</v>
@@ -458,10 +458,10 @@
         <v>0.0</v>
       </c>
       <c r="G2">
-        <v>0.0146</v>
+        <v>0.0206</v>
       </c>
       <c r="H2">
-        <v>0.0398</v>
+        <v>0.0504</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -469,13 +469,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>37734.32</v>
+        <v>37739.66</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D3">
-        <v>0.2034</v>
+        <v>0.3855</v>
       </c>
       <c r="E3">
         <v>37734.32</v>
@@ -484,10 +484,10 @@
         <v>0.01</v>
       </c>
       <c r="G3">
-        <v>0.1873</v>
+        <v>0.285</v>
       </c>
       <c r="H3">
-        <v>0.3907</v>
+        <v>0.6705</v>
       </c>
     </row>
   </sheetData>
